--- a/data/simulated_data/case1_mse_full.xlsx
+++ b/data/simulated_data/case1_mse_full.xlsx
@@ -531,7 +531,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>% Decrease relative to RP full</t>
+          <t>% Decrease relative to RP</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
